--- a/data/trans_dic/P78D$alquiler_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78D$alquiler_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,38</t>
+          <t>0,19; 1,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,96</t>
+          <t>0,54; 1,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,44</t>
+          <t>0,52; 1,49</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,69</t>
+          <t>0,3; 1,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,47</t>
+          <t>1,25; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,07</t>
+          <t>0,84; 2,08</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,72</t>
+          <t>0,71; 2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,99</t>
+          <t>0,28; 3,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,43</t>
+          <t>0,65; 2,35</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,01</t>
+          <t>1,59; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,21</t>
+          <t>2,08; 4,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,69</t>
+          <t>2,23; 3,8</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,99</t>
+          <t>0,96; 1,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,53</t>
+          <t>1,4; 2,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,03</t>
+          <t>1,32; 2,06</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido, al menos, algún retraso en el pago del alquiler</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7855</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11744</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1201; 9818</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3825; 13985</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6840; 19769</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9947</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19556</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29503</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3511; 20041</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11501; 32709</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17538; 43628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10155</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9273</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19428</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4838; 18978</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2491; 32148</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10327; 37163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23702</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29638</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53339</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14277; 36148</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20572; 41711</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42107; 71681</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>47693</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66321</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114014</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>32373; 64299</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49240; 87560</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>90543; 141860</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>